--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>diametro</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>frutas</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -464,6 +469,11 @@
       </c>
       <c r="D2" t="n">
         <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -481,6 +491,11 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -497,6 +512,11 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -513,6 +533,11 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -529,6 +554,11 @@
       <c r="D6" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -545,6 +575,11 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -561,6 +596,11 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -577,6 +617,11 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -593,6 +638,11 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -609,6 +659,11 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -625,6 +680,11 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -641,6 +701,11 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -657,6 +722,11 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -673,6 +743,11 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -689,6 +764,11 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -705,6 +785,11 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -721,6 +806,11 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -737,6 +827,11 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -753,6 +848,11 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -769,6 +869,11 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -785,6 +890,11 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -801,6 +911,11 @@
       <c r="D23" t="n">
         <v>0</v>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -817,6 +932,11 @@
       <c r="D24" t="n">
         <v>0</v>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -833,6 +953,11 @@
       <c r="D25" t="n">
         <v>1.595769121605731</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -849,6 +974,11 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -865,6 +995,11 @@
       <c r="D27" t="n">
         <v>0</v>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -881,6 +1016,11 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -897,6 +1037,11 @@
       <c r="D29" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -913,6 +1058,11 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -929,6 +1079,11 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Maçã</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -945,6 +1100,11 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -961,6 +1121,11 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -977,6 +1142,11 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -993,6 +1163,11 @@
       <c r="D35" t="n">
         <v>0</v>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1009,6 +1184,11 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1025,6 +1205,11 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1041,6 +1226,11 @@
       <c r="D38" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1057,6 +1247,11 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1073,6 +1268,11 @@
       <c r="D40" t="n">
         <v>0</v>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1089,6 +1289,11 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1105,6 +1310,11 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1121,6 +1331,11 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1137,6 +1352,11 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1153,6 +1373,11 @@
       <c r="D45" t="n">
         <v>0</v>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1169,6 +1394,11 @@
       <c r="D46" t="n">
         <v>0</v>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1185,6 +1415,11 @@
       <c r="D47" t="n">
         <v>0</v>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1201,6 +1436,11 @@
       <c r="D48" t="n">
         <v>1.784124116152771</v>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1217,6 +1457,11 @@
       <c r="D49" t="n">
         <v>0</v>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1233,6 +1478,11 @@
       <c r="D50" t="n">
         <v>0</v>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1249,6 +1499,11 @@
       <c r="D51" t="n">
         <v>3.090193616185517</v>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1265,6 +1520,11 @@
       <c r="D52" t="n">
         <v>1.381976597885342</v>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1281,6 +1541,11 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1297,6 +1562,11 @@
       <c r="D54" t="n">
         <v>0</v>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1313,6 +1583,11 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1329,6 +1604,11 @@
       <c r="D56" t="n">
         <v>0</v>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1345,6 +1625,11 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1361,6 +1646,11 @@
       <c r="D58" t="n">
         <v>0</v>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1377,6 +1667,11 @@
       <c r="D59" t="n">
         <v>0</v>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1393,6 +1688,11 @@
       <c r="D60" t="n">
         <v>0</v>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1409,6 +1709,11 @@
       <c r="D61" t="n">
         <v>0</v>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Abacaxi</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1425,6 +1730,11 @@
       <c r="D62" t="n">
         <v>0</v>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1441,6 +1751,11 @@
       <c r="D63" t="n">
         <v>0</v>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1457,6 +1772,11 @@
       <c r="D64" t="n">
         <v>0</v>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1473,6 +1793,11 @@
       <c r="D65" t="n">
         <v>0</v>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1489,6 +1814,11 @@
       <c r="D66" t="n">
         <v>0</v>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1505,6 +1835,11 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1521,6 +1856,11 @@
       <c r="D68" t="n">
         <v>1.95441004761168</v>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1537,6 +1877,11 @@
       <c r="D69" t="n">
         <v>0</v>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1553,6 +1898,11 @@
       <c r="D70" t="n">
         <v>0</v>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1569,6 +1919,11 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1585,6 +1940,11 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1601,6 +1961,11 @@
       <c r="D73" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1617,6 +1982,11 @@
       <c r="D74" t="n">
         <v>0</v>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1633,6 +2003,11 @@
       <c r="D75" t="n">
         <v>0</v>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1649,6 +2024,11 @@
       <c r="D76" t="n">
         <v>0</v>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1665,6 +2045,11 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1681,6 +2066,11 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1697,6 +2087,11 @@
       <c r="D79" t="n">
         <v>0</v>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1713,6 +2108,11 @@
       <c r="D80" t="n">
         <v>0</v>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1729,6 +2129,11 @@
       <c r="D81" t="n">
         <v>0</v>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1745,6 +2150,11 @@
       <c r="D82" t="n">
         <v>0</v>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1761,6 +2171,11 @@
       <c r="D83" t="n">
         <v>0</v>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1777,6 +2192,11 @@
       <c r="D84" t="n">
         <v>0</v>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1793,6 +2213,11 @@
       <c r="D85" t="n">
         <v>0</v>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1809,6 +2234,11 @@
       <c r="D86" t="n">
         <v>0</v>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1825,6 +2255,11 @@
       <c r="D87" t="n">
         <v>0</v>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1841,6 +2276,11 @@
       <c r="D88" t="n">
         <v>0</v>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1857,6 +2297,11 @@
       <c r="D89" t="n">
         <v>0</v>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -1873,6 +2318,11 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -1889,6 +2339,11 @@
       <c r="D91" t="n">
         <v>0</v>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Banana</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -1905,6 +2360,11 @@
       <c r="D92" t="n">
         <v>0</v>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -1921,6 +2381,11 @@
       <c r="D93" t="n">
         <v>0</v>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -1937,6 +2402,11 @@
       <c r="D94" t="n">
         <v>0</v>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -1953,6 +2423,11 @@
       <c r="D95" t="n">
         <v>0</v>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -1969,6 +2444,11 @@
       <c r="D96" t="n">
         <v>0</v>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -1985,6 +2465,11 @@
       <c r="D97" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2001,6 +2486,11 @@
       <c r="D98" t="n">
         <v>0</v>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2017,6 +2507,11 @@
       <c r="D99" t="n">
         <v>0</v>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2033,6 +2528,11 @@
       <c r="D100" t="n">
         <v>0</v>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2049,6 +2549,11 @@
       <c r="D101" t="n">
         <v>0</v>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2065,6 +2570,11 @@
       <c r="D102" t="n">
         <v>2.256758334191025</v>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2081,6 +2591,11 @@
       <c r="D103" t="n">
         <v>0</v>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2097,6 +2612,11 @@
       <c r="D104" t="n">
         <v>0</v>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2113,6 +2633,11 @@
       <c r="D105" t="n">
         <v>0</v>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2129,6 +2654,11 @@
       <c r="D106" t="n">
         <v>0</v>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2145,6 +2675,11 @@
       <c r="D107" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2161,6 +2696,11 @@
       <c r="D108" t="n">
         <v>0</v>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2177,6 +2717,11 @@
       <c r="D109" t="n">
         <v>0</v>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2193,6 +2738,11 @@
       <c r="D110" t="n">
         <v>0</v>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2209,6 +2759,11 @@
       <c r="D111" t="n">
         <v>0</v>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2225,6 +2780,11 @@
       <c r="D112" t="n">
         <v>0</v>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2241,6 +2801,11 @@
       <c r="D113" t="n">
         <v>0</v>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2257,6 +2822,11 @@
       <c r="D114" t="n">
         <v>0</v>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2273,6 +2843,11 @@
       <c r="D115" t="n">
         <v>0</v>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2289,6 +2864,11 @@
       <c r="D116" t="n">
         <v>0</v>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2305,6 +2885,11 @@
       <c r="D117" t="n">
         <v>0</v>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2321,6 +2906,11 @@
       <c r="D118" t="n">
         <v>0</v>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2337,6 +2927,11 @@
       <c r="D119" t="n">
         <v>0</v>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2353,6 +2948,11 @@
       <c r="D120" t="n">
         <v>0</v>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2369,6 +2969,11 @@
       <c r="D121" t="n">
         <v>0</v>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Pêssego</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2385,6 +2990,11 @@
       <c r="D122" t="n">
         <v>0</v>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2401,6 +3011,11 @@
       <c r="D123" t="n">
         <v>0</v>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2417,6 +3032,11 @@
       <c r="D124" t="n">
         <v>0</v>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2433,6 +3053,11 @@
       <c r="D125" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2449,6 +3074,11 @@
       <c r="D126" t="n">
         <v>0</v>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2465,6 +3095,11 @@
       <c r="D127" t="n">
         <v>0</v>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2481,6 +3116,11 @@
       <c r="D128" t="n">
         <v>0</v>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2497,6 +3137,11 @@
       <c r="D129" t="n">
         <v>0</v>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2513,6 +3158,11 @@
       <c r="D130" t="n">
         <v>0</v>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2529,6 +3179,11 @@
       <c r="D131" t="n">
         <v>0</v>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2545,6 +3200,11 @@
       <c r="D132" t="n">
         <v>1.381976597885342</v>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2561,6 +3221,11 @@
       <c r="D133" t="n">
         <v>0</v>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2577,6 +3242,11 @@
       <c r="D134" t="n">
         <v>0</v>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2593,6 +3263,11 @@
       <c r="D135" t="n">
         <v>0</v>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2609,6 +3284,11 @@
       <c r="D136" t="n">
         <v>0</v>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2625,6 +3305,11 @@
       <c r="D137" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -2641,6 +3326,11 @@
       <c r="D138" t="n">
         <v>0</v>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -2657,6 +3347,11 @@
       <c r="D139" t="n">
         <v>0</v>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2673,6 +3368,11 @@
       <c r="D140" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2689,6 +3389,11 @@
       <c r="D141" t="n">
         <v>0</v>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2705,6 +3410,11 @@
       <c r="D142" t="n">
         <v>0</v>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2721,6 +3431,11 @@
       <c r="D143" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -2737,6 +3452,11 @@
       <c r="D144" t="n">
         <v>0</v>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -2753,6 +3473,11 @@
       <c r="D145" t="n">
         <v>1.784124116152771</v>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -2769,6 +3494,11 @@
       <c r="D146" t="n">
         <v>0</v>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -2785,6 +3515,11 @@
       <c r="D147" t="n">
         <v>0</v>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -2801,6 +3536,11 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -2817,6 +3557,11 @@
       <c r="D149" t="n">
         <v>0</v>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -2833,6 +3578,11 @@
       <c r="D150" t="n">
         <v>0</v>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -2849,6 +3599,11 @@
       <c r="D151" t="n">
         <v>0</v>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Pitanga</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -2865,6 +3620,11 @@
       <c r="D152" t="n">
         <v>0</v>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -2881,6 +3641,11 @@
       <c r="D153" t="n">
         <v>0</v>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -2897,6 +3662,11 @@
       <c r="D154" t="n">
         <v>0</v>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -2913,6 +3683,11 @@
       <c r="D155" t="n">
         <v>0</v>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -2929,6 +3704,11 @@
       <c r="D156" t="n">
         <v>0</v>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -2945,6 +3725,11 @@
       <c r="D157" t="n">
         <v>0</v>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -2961,6 +3746,11 @@
       <c r="D158" t="n">
         <v>0</v>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -2977,6 +3767,11 @@
       <c r="D159" t="n">
         <v>0</v>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -2993,6 +3788,11 @@
       <c r="D160" t="n">
         <v>0</v>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3009,6 +3809,11 @@
       <c r="D161" t="n">
         <v>0</v>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3025,6 +3830,11 @@
       <c r="D162" t="n">
         <v>0</v>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3041,6 +3851,11 @@
       <c r="D163" t="n">
         <v>0</v>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3057,6 +3872,11 @@
       <c r="D164" t="n">
         <v>0</v>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3073,6 +3893,11 @@
       <c r="D165" t="n">
         <v>0</v>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3089,6 +3914,11 @@
       <c r="D166" t="n">
         <v>0</v>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3105,6 +3935,11 @@
       <c r="D167" t="n">
         <v>0</v>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3121,6 +3956,11 @@
       <c r="D168" t="n">
         <v>0</v>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3137,6 +3977,11 @@
       <c r="D169" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3153,6 +3998,11 @@
       <c r="D170" t="n">
         <v>0</v>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3169,6 +4019,11 @@
       <c r="D171" t="n">
         <v>0</v>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3185,6 +4040,11 @@
       <c r="D172" t="n">
         <v>1.381976597885342</v>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3201,6 +4061,11 @@
       <c r="D173" t="n">
         <v>0</v>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3217,6 +4082,11 @@
       <c r="D174" t="n">
         <v>0</v>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3233,6 +4103,11 @@
       <c r="D175" t="n">
         <v>0</v>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3249,6 +4124,11 @@
       <c r="D176" t="n">
         <v>0</v>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3265,6 +4145,11 @@
       <c r="D177" t="n">
         <v>0</v>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3281,6 +4166,11 @@
       <c r="D178" t="n">
         <v>0</v>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3297,6 +4187,11 @@
       <c r="D179" t="n">
         <v>1.381976597885342</v>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3313,6 +4208,11 @@
       <c r="D180" t="n">
         <v>0</v>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3329,6 +4229,11 @@
       <c r="D181" t="n">
         <v>0</v>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3345,6 +4250,11 @@
       <c r="D182" t="n">
         <v>0</v>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3361,6 +4271,11 @@
       <c r="D183" t="n">
         <v>0</v>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3377,6 +4292,11 @@
       <c r="D184" t="n">
         <v>0</v>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3393,6 +4313,11 @@
       <c r="D185" t="n">
         <v>0</v>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3409,6 +4334,11 @@
       <c r="D186" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -3425,6 +4355,11 @@
       <c r="D187" t="n">
         <v>0</v>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -3441,6 +4376,11 @@
       <c r="D188" t="n">
         <v>0</v>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -3457,6 +4397,11 @@
       <c r="D189" t="n">
         <v>0</v>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -3473,6 +4418,11 @@
       <c r="D190" t="n">
         <v>0</v>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -3489,6 +4439,11 @@
       <c r="D191" t="n">
         <v>0</v>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -3505,6 +4460,11 @@
       <c r="D192" t="n">
         <v>0</v>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -3521,6 +4481,11 @@
       <c r="D193" t="n">
         <v>0</v>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -3537,6 +4502,11 @@
       <c r="D194" t="n">
         <v>0</v>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -3553,6 +4523,11 @@
       <c r="D195" t="n">
         <v>0</v>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -3569,6 +4544,11 @@
       <c r="D196" t="n">
         <v>0</v>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -3585,6 +4565,11 @@
       <c r="D197" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -3601,6 +4586,11 @@
       <c r="D198" t="n">
         <v>0</v>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -3617,6 +4607,11 @@
       <c r="D199" t="n">
         <v>0</v>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -3633,6 +4628,11 @@
       <c r="D200" t="n">
         <v>1.595769121605731</v>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -3649,6 +4649,11 @@
       <c r="D201" t="n">
         <v>0</v>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -3665,6 +4670,11 @@
       <c r="D202" t="n">
         <v>0</v>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -3681,6 +4691,11 @@
       <c r="D203" t="n">
         <v>0</v>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -3697,6 +4712,11 @@
       <c r="D204" t="n">
         <v>0</v>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -3713,6 +4733,11 @@
       <c r="D205" t="n">
         <v>0</v>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -3729,6 +4754,11 @@
       <c r="D206" t="n">
         <v>0</v>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -3745,6 +4775,11 @@
       <c r="D207" t="n">
         <v>0</v>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -3761,6 +4796,11 @@
       <c r="D208" t="n">
         <v>0</v>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -3777,6 +4817,11 @@
       <c r="D209" t="n">
         <v>0</v>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -3793,6 +4838,11 @@
       <c r="D210" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -3809,6 +4859,11 @@
       <c r="D211" t="n">
         <v>1.381976597885342</v>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Morango</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -3825,6 +4880,11 @@
       <c r="D212" t="n">
         <v>0</v>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -3841,6 +4901,11 @@
       <c r="D213" t="n">
         <v>0</v>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -3857,6 +4922,11 @@
       <c r="D214" t="n">
         <v>0</v>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -3873,6 +4943,11 @@
       <c r="D215" t="n">
         <v>0</v>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -3889,6 +4964,11 @@
       <c r="D216" t="n">
         <v>0</v>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -3905,6 +4985,11 @@
       <c r="D217" t="n">
         <v>2.646283714200614</v>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -3921,6 +5006,11 @@
       <c r="D218" t="n">
         <v>0</v>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -3937,6 +5027,11 @@
       <c r="D219" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -3953,6 +5048,11 @@
       <c r="D220" t="n">
         <v>0</v>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -3969,6 +5069,11 @@
       <c r="D221" t="n">
         <v>0</v>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -3985,6 +5090,11 @@
       <c r="D222" t="n">
         <v>0</v>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4001,6 +5111,11 @@
       <c r="D223" t="n">
         <v>0</v>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4017,6 +5132,11 @@
       <c r="D224" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4033,6 +5153,11 @@
       <c r="D225" t="n">
         <v>0</v>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4049,6 +5174,11 @@
       <c r="D226" t="n">
         <v>0</v>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4065,6 +5195,11 @@
       <c r="D227" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4081,6 +5216,11 @@
       <c r="D228" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4097,6 +5237,11 @@
       <c r="D229" t="n">
         <v>0</v>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -4113,6 +5258,11 @@
       <c r="D230" t="n">
         <v>0</v>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4129,6 +5279,11 @@
       <c r="D231" t="n">
         <v>0</v>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -4145,6 +5300,11 @@
       <c r="D232" t="n">
         <v>1.784124116152771</v>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -4161,6 +5321,11 @@
       <c r="D233" t="n">
         <v>0</v>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -4177,6 +5342,11 @@
       <c r="D234" t="n">
         <v>0</v>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -4193,6 +5363,11 @@
       <c r="D235" t="n">
         <v>1.128379167095513</v>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -4209,6 +5384,11 @@
       <c r="D236" t="n">
         <v>0</v>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -4225,6 +5405,11 @@
       <c r="D237" t="n">
         <v>0</v>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -4241,6 +5426,11 @@
       <c r="D238" t="n">
         <v>0</v>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -4257,6 +5447,11 @@
       <c r="D239" t="n">
         <v>0</v>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -4273,6 +5468,11 @@
       <c r="D240" t="n">
         <v>0</v>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -4289,6 +5489,11 @@
       <c r="D241" t="n">
         <v>0</v>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Pera</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -4305,6 +5510,11 @@
       <c r="D242" t="n">
         <v>0</v>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -4321,6 +5531,11 @@
       <c r="D243" t="n">
         <v>0</v>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -4337,6 +5552,11 @@
       <c r="D244" t="n">
         <v>0</v>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -4353,6 +5573,11 @@
       <c r="D245" t="n">
         <v>0</v>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -4369,6 +5594,11 @@
       <c r="D246" t="n">
         <v>0</v>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -4385,6 +5615,11 @@
       <c r="D247" t="n">
         <v>0</v>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -4401,6 +5636,11 @@
       <c r="D248" t="n">
         <v>0</v>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -4417,6 +5657,11 @@
       <c r="D249" t="n">
         <v>0</v>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -4433,6 +5678,11 @@
       <c r="D250" t="n">
         <v>0</v>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -4449,6 +5699,11 @@
       <c r="D251" t="n">
         <v>0</v>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -4465,6 +5720,11 @@
       <c r="D252" t="n">
         <v>0</v>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -4481,6 +5741,11 @@
       <c r="D253" t="n">
         <v>0</v>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -4497,6 +5762,11 @@
       <c r="D254" t="n">
         <v>0</v>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -4513,6 +5783,11 @@
       <c r="D255" t="n">
         <v>0</v>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -4529,6 +5804,11 @@
       <c r="D256" t="n">
         <v>0</v>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -4545,6 +5825,11 @@
       <c r="D257" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -4561,6 +5846,11 @@
       <c r="D258" t="n">
         <v>0</v>
       </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -4577,6 +5867,11 @@
       <c r="D259" t="n">
         <v>0</v>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -4593,6 +5888,11 @@
       <c r="D260" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -4609,6 +5909,11 @@
       <c r="D261" t="n">
         <v>1.784124116152771</v>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -4625,6 +5930,11 @@
       <c r="D262" t="n">
         <v>0</v>
       </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -4641,6 +5951,11 @@
       <c r="D263" t="n">
         <v>0</v>
       </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -4657,6 +5972,11 @@
       <c r="D264" t="n">
         <v>0</v>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -4673,6 +5993,11 @@
       <c r="D265" t="n">
         <v>0</v>
       </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -4689,6 +6014,11 @@
       <c r="D266" t="n">
         <v>0</v>
       </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -4705,6 +6035,11 @@
       <c r="D267" t="n">
         <v>0</v>
       </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -4721,6 +6056,11 @@
       <c r="D268" t="n">
         <v>0</v>
       </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -4737,6 +6077,11 @@
       <c r="D269" t="n">
         <v>0</v>
       </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -4753,6 +6098,11 @@
       <c r="D270" t="n">
         <v>0</v>
       </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -4769,6 +6119,11 @@
       <c r="D271" t="n">
         <v>0</v>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Limão</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -4785,6 +6140,11 @@
       <c r="D272" t="n">
         <v>0</v>
       </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -4801,6 +6161,11 @@
       <c r="D273" t="n">
         <v>0</v>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -4817,6 +6182,11 @@
       <c r="D274" t="n">
         <v>0</v>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -4833,6 +6203,11 @@
       <c r="D275" t="n">
         <v>0</v>
       </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -4849,6 +6224,11 @@
       <c r="D276" t="n">
         <v>0</v>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -4865,6 +6245,11 @@
       <c r="D277" t="n">
         <v>0</v>
       </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -4881,6 +6266,11 @@
       <c r="D278" t="n">
         <v>0</v>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -4897,6 +6287,11 @@
       <c r="D279" t="n">
         <v>0</v>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -4913,6 +6308,11 @@
       <c r="D280" t="n">
         <v>0</v>
       </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -4929,6 +6329,11 @@
       <c r="D281" t="n">
         <v>0</v>
       </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -4945,6 +6350,11 @@
       <c r="D282" t="n">
         <v>0</v>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -4961,6 +6371,11 @@
       <c r="D283" t="n">
         <v>0</v>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -4977,6 +6392,11 @@
       <c r="D284" t="n">
         <v>0</v>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -4993,6 +6413,11 @@
       <c r="D285" t="n">
         <v>0</v>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -5009,6 +6434,11 @@
       <c r="D286" t="n">
         <v>1.381976597885342</v>
       </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -5025,6 +6455,11 @@
       <c r="D287" t="n">
         <v>0</v>
       </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -5041,6 +6476,11 @@
       <c r="D288" t="n">
         <v>0</v>
       </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -5057,6 +6497,11 @@
       <c r="D289" t="n">
         <v>0</v>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -5073,6 +6518,11 @@
       <c r="D290" t="n">
         <v>0</v>
       </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -5089,6 +6539,11 @@
       <c r="D291" t="n">
         <v>0</v>
       </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -5105,6 +6560,11 @@
       <c r="D292" t="n">
         <v>0</v>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -5121,6 +6581,11 @@
       <c r="D293" t="n">
         <v>1.95441004761168</v>
       </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -5137,6 +6602,11 @@
       <c r="D294" t="n">
         <v>0</v>
       </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -5153,6 +6623,11 @@
       <c r="D295" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -5169,6 +6644,11 @@
       <c r="D296" t="n">
         <v>0.7978845608028654</v>
       </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -5185,6 +6665,11 @@
       <c r="D297" t="n">
         <v>0</v>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -5201,6 +6686,11 @@
       <c r="D298" t="n">
         <v>0</v>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -5217,6 +6707,11 @@
       <c r="D299" t="n">
         <v>0</v>
       </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -5233,6 +6728,11 @@
       <c r="D300" t="n">
         <v>0</v>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -5248,6 +6748,11 @@
       </c>
       <c r="D301" t="n">
         <v>0</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
       </c>
     </row>
   </sheetData>
